--- a/results_3.xlsx
+++ b/results_3.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="88">
   <si>
     <t xml:space="preserve">PN</t>
   </si>
@@ -58,9 +58,6 @@
     <t xml:space="preserve">||AHb - b||_1</t>
   </si>
   <si>
-    <t xml:space="preserve">|lambda^T(AHb - b)|</t>
-  </si>
-  <si>
     <t xml:space="preserve">Computational_Time(s)</t>
   </si>
   <si>
@@ -73,7 +70,7 @@
     <t xml:space="preserve">10</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2660013385962796</t>
+    <t xml:space="preserve">1.4975435652197908</t>
   </si>
   <si>
     <t xml:space="preserve">10.0</t>
@@ -82,157 +79,136 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7800273184207525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8518528578762737e-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6887211675351985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3322676295501878e-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3715251402089372e-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7587215900421143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.735544204711914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.332345930325403</t>
+    <t xml:space="preserve">6.4887497904621965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5586629378144257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6645352591003757e-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.48548221588134766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.481522560119629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.30074156952313</t>
   </si>
   <si>
     <t xml:space="preserve">200.0</t>
   </si>
   <si>
-    <t xml:space="preserve">1.596057906685748e-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9675497818511941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.066987699845552e-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.206324095117452e-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.765216161024797e-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.955677032470703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.637945175170898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.332345930325925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2148245650860301e-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9675497818512419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.039437875918535e-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.105427357601002e-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.628140683894957e-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7636528015136719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.19226360321045</t>
+    <t xml:space="preserve">2.209000467038961e-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9750007678147875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63665017954933e-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.221689829999377e-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.925170421600342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.172924041748047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3007415695235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.604387645804205e-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9750007678147824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.01722743971356e-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6645352591003757e-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6894083023071289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55825138092041</t>
   </si>
   <si>
     <t xml:space="preserve">40</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5203768834568752</t>
+    <t xml:space="preserve">1.5292422139634145</t>
   </si>
   <si>
     <t xml:space="preserve">20.0</t>
   </si>
   <si>
-    <t xml:space="preserve">13.033733538245887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5851069811757e-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9419903523346709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.171241461241152e-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.106559427987443e-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.849644899368286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.283812522888184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58.96832944357985</t>
+    <t xml:space="preserve">12.90237109918947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9605061466028952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5067062021407764e-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2113254070281982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.417442321777344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.21834080230232</t>
   </si>
   <si>
     <t xml:space="preserve">800.0</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0471784307759305e-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0807049538159894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5147705808147781e-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.249401162174763e-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0781160982788035e-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.37536597251892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">150.62823104858398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58.96832944357993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07798580954634e-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.080704953815955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3161943674648284e-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.237055564881302e-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.547444036051857e-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.108667373657227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.51685428619385</t>
+    <t xml:space="preserve">6.052131400791558e-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9924740148523327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.332515997873194e-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.921396458077652e-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.50572896003723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">135.82830142974854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.21834080231443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.673674128477873e-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9924740148524785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4505935799081874e-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7408297026122455e-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.932713270187378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.66571521759033</t>
   </si>
   <si>
     <t xml:space="preserve">60</t>
@@ -241,82 +217,73 @@
     <t xml:space="preserve">30</t>
   </si>
   <si>
-    <t xml:space="preserve">1.613425909704155</t>
+    <t xml:space="preserve">1.5809034828393707</t>
   </si>
   <si>
     <t xml:space="preserve">30.0</t>
   </si>
   <si>
-    <t xml:space="preserve">20.74456939660146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51236483792082e-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3217218557218677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.504663143554353e-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.802968569289139e-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.818597555160522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">109.30704689025879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83.73504012847366</t>
+    <t xml:space="preserve">20.985573048896875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6300722762709273e-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.271506933150842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.753353101070388e-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.573498249053955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.46961975097656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.32213826804929</t>
   </si>
   <si>
     <t xml:space="preserve">1800.0</t>
   </si>
   <si>
-    <t xml:space="preserve">9.178600548460518e-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0717414048677403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.528859608151754e-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4708237939848914e-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4091791172003746e-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">353.7499330043793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">657.2010297775269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83.7350401284734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5268940805676845e-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0717414048670824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52201178022626e-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03774799653911e-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79048958353134e-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.348709106445312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">177.18011569976807</t>
+    <t xml:space="preserve">8.627667425122313e-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.019031694237416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.797924490402079e-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.537454773550053e-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">314.02829670906067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">610.2540616989136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.3221382678106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.041743560420886e-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0190316941786244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.531915965106666e-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.327471962526033e-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.782115459442139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">118.99945735931396</t>
   </si>
 </sst>
 </file>
@@ -371,8 +338,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEC9BA4"/>
-        <bgColor rgb="FFFF8080"/>
+        <fgColor rgb="FFFFA6A6"/>
+        <bgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
   </fills>
@@ -498,7 +465,7 @@
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FFAFD095"/>
-      <rgbColor rgb="FFEC9BA4"/>
+      <rgbColor rgb="FFFFA6A6"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
@@ -702,7 +669,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AF5"/>
+  <dimension ref="A1:AC5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -715,22 +682,23 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="24.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="21.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="24.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="21.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="0" width="21.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="8.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="24.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="21.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="18" style="0" width="24.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="21.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="22" style="0" width="21.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="8.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="24.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="21.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="24.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="29" style="0" width="23.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="21.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="21.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="24.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="22.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="21.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="19.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="8.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="23.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="21.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="0" width="23.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="21.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="21.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="19.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="8.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="23.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="21.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="26" style="0" width="24.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="21.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="21.04"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -745,10 +713,10 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
@@ -756,20 +724,17 @@
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
       <c r="AB1" s="3"/>
       <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="3"/>
-      <c r="AF1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
@@ -805,362 +770,326 @@
       <c r="K2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>14</v>
+      <c r="L2" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="M2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="U2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="V2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="W2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="X2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="Y2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="Z2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="AA2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="AB2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="AC2" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="W2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="X2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="AF2" s="7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="C3" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="E3" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="G3" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="H3" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="I3" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="J3" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="K3" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="L3" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="0" t="s">
+      <c r="M3" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="0" t="s">
+      <c r="N3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="0" t="s">
+      <c r="P3" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="P3" s="0" t="s">
+      <c r="Q3" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="0" t="s">
+      <c r="R3" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="R3" s="0" t="s">
+      <c r="S3" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="S3" s="0" t="s">
+      <c r="T3" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="T3" s="0" t="s">
+      <c r="U3" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="U3" s="0" t="s">
+      <c r="V3" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="W3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="X3" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="V3" s="0" t="s">
+      <c r="Y3" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="W3" s="0" t="s">
+      <c r="Z3" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="X3" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z3" s="0" t="s">
+      <c r="AA3" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="AA3" s="0" t="s">
+      <c r="AB3" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="AB3" s="0" t="s">
+      <c r="AC3" s="0" t="s">
         <v>39</v>
-      </c>
-      <c r="AC3" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD3" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE3" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF3" s="0" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="0" t="s">
+      <c r="I4" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="J4" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="0" t="s">
+      <c r="K4" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="L4" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="M4" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="N4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="P4" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="K4" s="0" t="s">
+      <c r="Q4" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="L4" s="0" t="s">
+      <c r="R4" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="M4" s="0" t="s">
+      <c r="S4" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="N4" s="0" t="s">
+      <c r="T4" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="O4" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="P4" s="0" t="s">
+      <c r="U4" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="Q4" s="0" t="s">
+      <c r="V4" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="W4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="X4" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="R4" s="0" t="s">
+      <c r="Y4" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="S4" s="0" t="s">
+      <c r="Z4" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="T4" s="0" t="s">
+      <c r="AA4" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="U4" s="0" t="s">
+      <c r="AB4" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="V4" s="0" t="s">
+      <c r="AC4" s="0" t="s">
         <v>62</v>
-      </c>
-      <c r="W4" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="X4" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y4" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z4" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA4" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB4" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC4" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD4" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE4" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF4" s="0" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="K5" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="L5" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="M5" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="0" t="s">
+      <c r="N5" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="O5" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="P5" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="Q5" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="R5" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="S5" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="K5" s="0" t="s">
+      <c r="T5" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="L5" s="0" t="s">
+      <c r="U5" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="M5" s="0" t="s">
+      <c r="V5" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="W5" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="X5" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="N5" s="0" t="s">
+      <c r="Y5" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="O5" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="P5" s="0" t="s">
+      <c r="Z5" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="Q5" s="0" t="s">
+      <c r="AA5" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="R5" s="0" t="s">
+      <c r="AB5" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="S5" s="0" t="s">
+      <c r="AC5" s="0" t="s">
         <v>87</v>
-      </c>
-      <c r="T5" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="U5" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="V5" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="W5" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="X5" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y5" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z5" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA5" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="AB5" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC5" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD5" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE5" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF5" s="0" t="s">
-        <v>98</v>
       </c>
     </row>
   </sheetData>
